--- a/xls/square_high_un_16_tri3_15.xlsx
+++ b/xls/square_high_un_16_tri3_15.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
-        <v>1350</v>
+        <v>1596</v>
       </c>
       <c r="I15">
-        <v>-1.904270627405331</v>
+        <v>-2.173723702157102</v>
       </c>
       <c r="J15">
-        <v>-1.7483312050987225</v>
+        <v>-1.853540277537871</v>
       </c>
       <c r="K15">
-        <v>-0.49939734611813325</v>
+        <v>-0.44910034270749194</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-2.0601703130000795</v>
+        <v>-1.9488084947677975</v>
       </c>
       <c r="J16">
-        <v>-1.6781532921255347</v>
+        <v>-1.635396338416365</v>
       </c>
       <c r="K16">
-        <v>-0.2977342217469093</v>
+        <v>-0.25985937463081904</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-1.3355834099522126</v>
+        <v>-0.8659975677497185</v>
       </c>
       <c r="J17">
-        <v>-1.1439524241974228</v>
+        <v>-0.7537302481097612</v>
       </c>
       <c r="K17">
-        <v>0.4830433501074847</v>
+        <v>1.1433662529361606</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-1.1709306749597397</v>
+        <v>-0.3351408591652668</v>
       </c>
       <c r="J18">
-        <v>-1.0189936427869393</v>
+        <v>-0.30412380946648626</v>
       </c>
       <c r="K18">
-        <v>0.7678424421613456</v>
+        <v>1.8912715324569285</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.521075794753358</v>
+        <v>0.0012229478293089722</v>
       </c>
       <c r="J19">
-        <v>-0.43674635272123313</v>
+        <v>0.00018661849006514246</v>
       </c>
       <c r="K19">
-        <v>1.3734982225404697</v>
+        <v>2.639425261591789</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.22631140806452088</v>
+        <v>4.4221901305256544e-6</v>
       </c>
       <c r="J20">
-        <v>-0.19622270750209206</v>
+        <v>2.053153373509348e-7</v>
       </c>
       <c r="K20">
-        <v>1.9072809424019734</v>
+        <v>1.780898417472471</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>0.0006332066953334233</v>
+        <v>1.4764855852490987e-6</v>
       </c>
       <c r="J21">
-        <v>-0.001675084521591963</v>
+        <v>-8.441424411220632e-7</v>
       </c>
       <c r="K21">
-        <v>2.7799004022315073</v>
+        <v>1.7440033630790523</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>8.84630644297142e-7</v>
+        <v>-5.273818356589102e-7</v>
       </c>
       <c r="J22">
-        <v>-5.121099660223253e-6</v>
+        <v>-7.326730137698741e-7</v>
       </c>
       <c r="K22">
-        <v>2.0121259271847807</v>
+        <v>1.4537505997615052</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-1.4218267275953483e-6</v>
+        <v>-4.403099348689856e-7</v>
       </c>
       <c r="J23">
-        <v>-3.570596096218756e-6</v>
+        <v>-5.848170820871995e-7</v>
       </c>
       <c r="K23">
-        <v>1.856670236976516</v>
+        <v>1.3941377183765298</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>3.551781261508029e-8</v>
+        <v>-3.308165244205646e-7</v>
       </c>
       <c r="J24">
-        <v>-1.3042828946171384e-6</v>
+        <v>-4.305110405687662e-7</v>
       </c>
       <c r="K24">
-        <v>1.6953535984998684</v>
+        <v>1.3303666969405008</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-9.20851342642765e-7</v>
+        <v>-4.35140450922634e-7</v>
       </c>
       <c r="J25">
-        <v>-1.6039231219382943e-6</v>
+        <v>-4.5840989373724326e-7</v>
       </c>
       <c r="K25">
-        <v>1.656590829218516</v>
+        <v>1.3040623386628463</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>1.3857933584004843e-7</v>
+        <v>-3.178799905796585e-7</v>
       </c>
       <c r="J26">
-        <v>-5.872752230408351e-7</v>
+        <v>-3.6488449822356226e-7</v>
       </c>
       <c r="K26">
-        <v>1.5454397541687253</v>
+        <v>1.2706301873601522</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-4.212324469329816e-8</v>
+        <v>-3.016472147841392e-7</v>
       </c>
       <c r="J27">
-        <v>-5.841947745057781e-7</v>
+        <v>-3.334520767005419e-7</v>
       </c>
       <c r="K27">
-        <v>1.5050466709072563</v>
+        <v>1.2451137672888932</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-5.301703813473681e-8</v>
+        <v>-2.855786813055301e-7</v>
       </c>
       <c r="J28">
-        <v>-4.287531444007294e-7</v>
+        <v>-3.2339455175105557e-7</v>
       </c>
       <c r="K28">
-        <v>1.4323071734610273</v>
+        <v>1.2434309606582903</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-2.435289358734331e-7</v>
+        <v>-3.0625060908395824e-7</v>
       </c>
       <c r="J29">
-        <v>-5.01648839553992e-7</v>
+        <v>-3.38889401888533e-7</v>
       </c>
       <c r="K29">
-        <v>1.4111451726736488</v>
+        <v>1.2471388377948884</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-1.6102364121133278e-7</v>
+        <v>-2.387193417186703e-7</v>
       </c>
       <c r="J30">
-        <v>-3.526381580716261e-7</v>
+        <v>-2.801603076159323e-7</v>
       </c>
       <c r="K30">
-        <v>1.3412652277988704</v>
+        <v>1.2183581251913143</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-2.664811980782784e-7</v>
+        <v>-2.821850316086026e-7</v>
       </c>
       <c r="J31">
-        <v>-3.93691369493162e-7</v>
+        <v>-3.0434127585777407e-7</v>
       </c>
       <c r="K31">
-        <v>1.3251391993392807</v>
+        <v>1.2180406658386749</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1071,22 +1071,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-2.3120542566284287e-7</v>
+        <v>-2.534408111108398e-7</v>
       </c>
       <c r="J32">
-        <v>-3.218252919647318e-7</v>
+        <v>-2.7915571868611013e-7</v>
       </c>
       <c r="K32">
-        <v>1.2742001065530062</v>
+        <v>1.205389198639826</v>
       </c>
     </row>
   </sheetData>
